--- a/public/games/cozy-grove/cozy-grove_data.xlsx
+++ b/public/games/cozy-grove/cozy-grove_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubChelsea\Achievement-Vault\games\cozy-grove\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubChelsea\Achievement-Vault\public\games\cozy-grove\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABF7E6A1-92A7-4F8B-A953-7ADE719ED78F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A68A8E16-6298-4E0B-AD73-B1BDFA9054EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="1410" windowWidth="21600" windowHeight="13830" xr2:uid="{E79D6183-D772-F644-AE89-4CAD504C8F4D}"/>
+    <workbookView xWindow="3885" yWindow="855" windowWidth="21600" windowHeight="13830" xr2:uid="{E79D6183-D772-F644-AE89-4CAD504C8F4D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -6098,7 +6098,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6108,6 +6108,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6124,7 +6130,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -6134,6 +6140,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6470,8 +6477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4659E671-0874-FE42-985B-794BDDF20B74}">
   <dimension ref="A1:BP255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J83" workbookViewId="0">
-      <selection activeCell="O91" sqref="O91"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7124,13 +7131,16 @@
       <c r="BC4">
         <v>1</v>
       </c>
-      <c r="BE4" t="s">
+      <c r="BE4" s="5" t="s">
         <v>1835</v>
       </c>
       <c r="BF4" t="s">
         <v>1836</v>
       </c>
       <c r="BG4">
+        <v>1</v>
+      </c>
+      <c r="BH4">
         <v>1</v>
       </c>
       <c r="BI4" t="s">
@@ -7842,13 +7852,16 @@
       <c r="S9">
         <v>1</v>
       </c>
-      <c r="U9" t="s">
+      <c r="U9" s="5" t="s">
         <v>1298</v>
       </c>
       <c r="V9" t="s">
         <v>1314</v>
       </c>
       <c r="W9">
+        <v>1</v>
+      </c>
+      <c r="X9">
         <v>1</v>
       </c>
       <c r="Y9" t="s">
@@ -9013,13 +9026,16 @@
       <c r="S16">
         <v>1</v>
       </c>
-      <c r="U16" t="s">
+      <c r="U16" s="5" t="s">
         <v>1305</v>
       </c>
       <c r="V16" t="s">
         <v>1321</v>
       </c>
       <c r="W16">
+        <v>1</v>
+      </c>
+      <c r="X16">
         <v>1</v>
       </c>
       <c r="Y16" t="s">
@@ -10618,13 +10634,16 @@
       <c r="BH24">
         <v>1</v>
       </c>
-      <c r="BI24" t="s">
+      <c r="BI24" s="5" t="s">
         <v>1935</v>
       </c>
       <c r="BJ24" t="s">
         <v>1936</v>
       </c>
       <c r="BK24">
+        <v>1</v>
+      </c>
+      <c r="BL24">
         <v>1</v>
       </c>
       <c r="BM24" t="s">
@@ -12922,7 +12941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>51</v>
       </c>
@@ -12975,7 +12994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>52</v>
       </c>
@@ -13028,7 +13047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>53</v>
       </c>
@@ -13081,8 +13100,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
         <v>54</v>
       </c>
       <c r="B52" t="s">
@@ -13091,6 +13110,9 @@
       <c r="C52" s="2">
         <v>1</v>
       </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
       <c r="E52" t="s">
         <v>309</v>
       </c>
@@ -13134,7 +13156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>55</v>
       </c>
@@ -13144,7 +13166,7 @@
       <c r="C53" s="2">
         <v>1</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E53" s="5" t="s">
         <v>310</v>
       </c>
       <c r="F53" t="s">
@@ -13153,6 +13175,9 @@
       <c r="G53">
         <v>1</v>
       </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
       <c r="I53" t="s">
         <v>583</v>
       </c>
@@ -13187,7 +13212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>56</v>
       </c>
@@ -13240,7 +13265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>57</v>
       </c>
@@ -13293,7 +13318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>58</v>
       </c>
@@ -13346,7 +13371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>59</v>
       </c>
@@ -13399,7 +13424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>60</v>
       </c>
@@ -13452,7 +13477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>61</v>
       </c>
@@ -13495,7 +13520,7 @@
       <c r="P59">
         <v>1</v>
       </c>
-      <c r="Q59" t="s">
+      <c r="Q59" s="5" t="s">
         <v>828</v>
       </c>
       <c r="R59" t="s">
@@ -13504,8 +13529,11 @@
       <c r="S59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>62</v>
       </c>
@@ -13558,7 +13586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>63</v>
       </c>
@@ -13611,7 +13639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>64</v>
       </c>
@@ -13664,7 +13692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>65</v>
       </c>
@@ -13717,7 +13745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>66</v>
       </c>
@@ -13771,13 +13799,16 @@
       </c>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="A65" s="5" t="s">
         <v>67</v>
       </c>
       <c r="B65" t="s">
         <v>116</v>
       </c>
       <c r="C65" s="2">
+        <v>1</v>
+      </c>
+      <c r="D65">
         <v>1</v>
       </c>
       <c r="E65" t="s">
@@ -14025,7 +14056,7 @@
       <c r="P69">
         <v>1</v>
       </c>
-      <c r="Q69" t="s">
+      <c r="Q69" s="5" t="s">
         <v>838</v>
       </c>
       <c r="R69" t="s">
@@ -14326,7 +14357,7 @@
       </c>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+      <c r="A77" s="5" t="s">
         <v>79</v>
       </c>
       <c r="B77" t="s">
@@ -14335,13 +14366,19 @@
       <c r="C77" s="2">
         <v>1</v>
       </c>
-      <c r="E77" t="s">
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77" s="5" t="s">
         <v>334</v>
       </c>
       <c r="F77" t="s">
         <v>392</v>
       </c>
       <c r="G77">
+        <v>1</v>
+      </c>
+      <c r="H77">
         <v>1</v>
       </c>
       <c r="M77" t="s">
@@ -14502,13 +14539,16 @@
       <c r="C81" s="2">
         <v>1</v>
       </c>
-      <c r="E81" t="s">
+      <c r="E81" s="5" t="s">
         <v>338</v>
       </c>
       <c r="F81" t="s">
         <v>385</v>
       </c>
       <c r="G81">
+        <v>1</v>
+      </c>
+      <c r="H81">
         <v>1</v>
       </c>
       <c r="M81" t="s">

--- a/public/games/cozy-grove/cozy-grove_data.xlsx
+++ b/public/games/cozy-grove/cozy-grove_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubChelsea\Achievement-Vault\public\games\cozy-grove\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A68A8E16-6298-4E0B-AD73-B1BDFA9054EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F039DB60-5707-449E-86BC-185E1E691726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3885" yWindow="855" windowWidth="21600" windowHeight="13830" xr2:uid="{E79D6183-D772-F644-AE89-4CAD504C8F4D}"/>
+    <workbookView xWindow="930" yWindow="165" windowWidth="21600" windowHeight="13830" xr2:uid="{E79D6183-D772-F644-AE89-4CAD504C8F4D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -6477,8 +6477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4659E671-0874-FE42-985B-794BDDF20B74}">
   <dimension ref="A1:BP255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="G78" sqref="G78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7208,13 +7208,16 @@
       <c r="S5">
         <v>1</v>
       </c>
-      <c r="U5" t="s">
+      <c r="U5" s="5" t="s">
         <v>1294</v>
       </c>
       <c r="V5" t="s">
         <v>1310</v>
       </c>
       <c r="W5">
+        <v>1</v>
+      </c>
+      <c r="X5">
         <v>1</v>
       </c>
       <c r="Y5" t="s">
@@ -11262,13 +11265,16 @@
       <c r="C28" s="2">
         <v>1</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="5" t="s">
         <v>285</v>
       </c>
       <c r="F28" t="s">
         <v>347</v>
       </c>
       <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
         <v>1</v>
       </c>
       <c r="I28" t="s">
@@ -12041,13 +12047,16 @@
       </c>
     </row>
     <row r="32" spans="1:68" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="A32" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B32" t="s">
         <v>106</v>
       </c>
       <c r="C32" s="2">
+        <v>1</v>
+      </c>
+      <c r="D32">
         <v>1</v>
       </c>
       <c r="E32" t="s">
@@ -12686,13 +12695,16 @@
       <c r="C44" s="2">
         <v>1</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44" s="5" t="s">
         <v>301</v>
       </c>
       <c r="F44" t="s">
         <v>377</v>
       </c>
       <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44">
         <v>1</v>
       </c>
       <c r="I44" t="s">
@@ -12739,13 +12751,16 @@
       <c r="C45" s="2">
         <v>1</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" s="5" t="s">
         <v>302</v>
       </c>
       <c r="F45" t="s">
         <v>378</v>
       </c>
       <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45">
         <v>1</v>
       </c>
       <c r="I45" t="s">
@@ -13222,13 +13237,16 @@
       <c r="C54" s="2">
         <v>1</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E54" s="5" t="s">
         <v>311</v>
       </c>
       <c r="F54" t="s">
         <v>381</v>
       </c>
       <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="H54">
         <v>1</v>
       </c>
       <c r="I54" t="s">
@@ -14316,13 +14334,16 @@
       </c>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+      <c r="A76" s="5" t="s">
         <v>78</v>
       </c>
       <c r="B76" t="s">
         <v>91</v>
       </c>
       <c r="C76" s="2">
+        <v>1</v>
+      </c>
+      <c r="D76">
         <v>1</v>
       </c>
       <c r="E76" t="s">
@@ -14454,13 +14475,16 @@
       <c r="C79" s="2">
         <v>1</v>
       </c>
-      <c r="E79" t="s">
+      <c r="E79" s="5" t="s">
         <v>336</v>
       </c>
       <c r="F79" t="s">
         <v>364</v>
       </c>
       <c r="G79">
+        <v>1</v>
+      </c>
+      <c r="H79">
         <v>1</v>
       </c>
       <c r="M79" t="s">
@@ -14794,13 +14818,16 @@
       <c r="D87" s="2">
         <v>1</v>
       </c>
-      <c r="E87" t="s">
+      <c r="E87" s="5" t="s">
         <v>344</v>
       </c>
       <c r="F87" t="s">
         <v>349</v>
       </c>
       <c r="G87">
+        <v>1</v>
+      </c>
+      <c r="H87">
         <v>1</v>
       </c>
       <c r="M87" t="s">
@@ -15473,13 +15500,16 @@
       <c r="P101">
         <v>1</v>
       </c>
-      <c r="Q101" t="s">
+      <c r="Q101" s="5" t="s">
         <v>870</v>
       </c>
       <c r="R101" t="s">
         <v>1041</v>
       </c>
       <c r="S101">
+        <v>1</v>
+      </c>
+      <c r="T101">
         <v>1</v>
       </c>
     </row>
@@ -16716,7 +16746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>192</v>
       </c>
@@ -16751,7 +16781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>193</v>
       </c>
@@ -16786,7 +16816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>194</v>
       </c>
@@ -16821,7 +16851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>195</v>
       </c>
@@ -16856,7 +16886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>196</v>
       </c>
@@ -16891,7 +16921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>197</v>
       </c>
@@ -16926,7 +16956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>198</v>
       </c>
@@ -16951,7 +16981,7 @@
       <c r="H135">
         <v>1</v>
       </c>
-      <c r="Q135" t="s">
+      <c r="Q135" s="5" t="s">
         <v>904</v>
       </c>
       <c r="R135" t="s">
@@ -16960,8 +16990,11 @@
       <c r="S135">
         <v>1</v>
       </c>
-    </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>199</v>
       </c>
@@ -16996,7 +17029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>200</v>
       </c>
@@ -17031,7 +17064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>201</v>
       </c>
@@ -17066,7 +17099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>202</v>
       </c>
@@ -17101,7 +17134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>203</v>
       </c>
@@ -17136,7 +17169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>204</v>
       </c>
@@ -17171,7 +17204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>205</v>
       </c>
@@ -17206,7 +17239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>206</v>
       </c>
@@ -17241,7 +17274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>207</v>
       </c>
